--- a/TEAM_SOS_USER_STORIES.xlsx
+++ b/TEAM_SOS_USER_STORIES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riccardo.dsilva\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\Team-SOS-Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="Sameer" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
   <si>
     <t>UI</t>
   </si>
@@ -93,9 +93,6 @@
     <t>User Stories:</t>
   </si>
   <si>
-    <t>As an end user, I will be able to login to the application from my mobile/desktop</t>
-  </si>
-  <si>
     <t>As an end user, I will be able to see all the projects in a dashboard. The projects displayed will be from a project management software like  JIRA, TFS etc or manually set by the admin user.</t>
   </si>
   <si>
@@ -232,13 +229,73 @@
   </si>
   <si>
     <t>As a manager, I want to be notified of all task submissions for the day</t>
+  </si>
+  <si>
+    <t>Selenium IDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation testing tool. </t>
+  </si>
+  <si>
+    <t>Ability to log (create, update, delete) benefits against a Project</t>
+  </si>
+  <si>
+    <t>Ability to log (create, update, delete) business requirements against a project, linking the benefits to the business requirements</t>
+  </si>
+  <si>
+    <t>Ability to assign (create, update, delete) functional requirements to business requirements</t>
+  </si>
+  <si>
+    <t>Ability to assign (create, update, delete) non-functional requirements to a Project</t>
+  </si>
+  <si>
+    <t>Ability to assign (create, update, delete) transition requirements to a Project</t>
+  </si>
+  <si>
+    <t>Provide a view providing a complete traceability matrix of project, business requirements, benefits, functional, non functional, transition requirements</t>
+  </si>
+  <si>
+    <t>Provide a view if a business requirement was not going to be done, what would be the impact to the business benefits.</t>
+  </si>
+  <si>
+    <t>As an end user, I will be able to login to the application from my mobile/desktop and have it remember my credentials.</t>
+  </si>
+  <si>
+    <t>As an Admin User Ability to add, modify, and delete high level project details</t>
+  </si>
+  <si>
+    <t>As an Admin User have the Ability to assign resources to projects</t>
+  </si>
+  <si>
+    <t>As an Admin User have the Ability to add, modify, and delete resources</t>
+  </si>
+  <si>
+    <t>As an Admin User have the Ability to assign project tasks to resources</t>
+  </si>
+  <si>
+    <t>As an End User have the Ability to export assigned tasks to resources outlook calendar</t>
+  </si>
+  <si>
+    <t>As an End user have the Ability to add, modify, and delete default project tasks</t>
+  </si>
+  <si>
+    <t>As an End User have the Ability to log time duration for a resource against a project task</t>
+  </si>
+  <si>
+    <t>As an End User have the Ability to view project plan and tasks in some graphical form</t>
+  </si>
+  <si>
+    <t>As an Admin User have the Ability to view what tasks have been assigned to resources</t>
+  </si>
+  <si>
+    <t>FUTURE DEVELOPMENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,8 +338,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +361,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -468,26 +555,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,23 +903,23 @@
     <col min="6" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="26" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="1:3" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="32" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -809,28 +928,28 @@
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -839,21 +958,21 @@
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -862,12 +981,12 @@
       <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -876,7 +995,7 @@
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="31"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="19"/>
       <c r="C14" s="17"/>
     </row>
@@ -899,7 +1018,7 @@
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -908,111 +1027,111 @@
       <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="31"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="20"/>
     </row>
-    <row r="19" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:3" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+    <row r="19" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:3" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+    <row r="21" spans="1:3" s="34" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="34" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
+    <row r="23" spans="1:3" s="34" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+    <row r="24" spans="1:3" s="34" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+    <row r="25" spans="1:3" s="34" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+    <row r="26" spans="1:3" s="34" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+    <row r="27" spans="1:3" s="34" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
+    <row r="28" spans="1:3" s="34" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+    <row r="29" spans="1:3" s="34" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
+    <row r="30" spans="1:3" s="34" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
+    <row r="31" spans="1:3" s="34" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
+    <row r="32" spans="1:3" s="34" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
+    <row r="33" spans="1:3" s="34" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
+    <row r="34" spans="1:3" s="34" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
+    <row r="35" spans="1:3" s="36" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25" t="s">
+    <row r="36" spans="1:3" s="36" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
+    <row r="37" spans="1:3" s="36" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
+    <row r="38" spans="1:3" s="36" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
+    <row r="39" spans="1:3" s="36" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="36" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -1028,18 +1147,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A30:XFD30"/>
-    <mergeCell ref="A19:XFD19"/>
-    <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="A22:XFD22"/>
-    <mergeCell ref="A23:XFD23"/>
-    <mergeCell ref="A24:XFD24"/>
     <mergeCell ref="A37:XFD37"/>
     <mergeCell ref="A38:XFD38"/>
     <mergeCell ref="A39:XFD39"/>
@@ -1056,6 +1163,18 @@
     <mergeCell ref="A27:XFD27"/>
     <mergeCell ref="A28:XFD28"/>
     <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="A30:XFD30"/>
+    <mergeCell ref="A19:XFD19"/>
+    <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="A22:XFD22"/>
+    <mergeCell ref="A23:XFD23"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1063,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,48 +1197,48 @@
     <col min="6" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="27" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="1:3" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="31" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="6" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1128,9 +1247,9 @@
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -1139,7 +1258,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="11"/>
     </row>
@@ -1171,133 +1290,148 @@
       <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="31"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
     </row>
-    <row r="15" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:3" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+    <row r="15" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:1" s="35" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="35" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:1" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="35" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+    <row r="21" spans="1:1" s="34" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+    <row r="22" spans="1:1" s="35" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+    <row r="23" spans="1:1" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="35" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" s="35" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" s="35" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
+    <row r="30" spans="1:1" s="35" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
+    <row r="31" spans="1:1" s="35" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
+    <row r="32" spans="1:1" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A32" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="39"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A25:XFD25"/>
+    <mergeCell ref="A17:XFD17"/>
+    <mergeCell ref="A22:XFD22"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="A19:XFD19"/>
     <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="A28:XFD28"/>
     <mergeCell ref="A26:XFD26"/>
-    <mergeCell ref="A28:XFD28"/>
-    <mergeCell ref="A17:XFD17"/>
-    <mergeCell ref="A19:XFD19"/>
-    <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="A22:XFD22"/>
     <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:XFD15"/>
+    <mergeCell ref="A16:XFD16"/>
+    <mergeCell ref="A1:XFD2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A29:XFD29"/>
     <mergeCell ref="A27:XFD27"/>
     <mergeCell ref="A30:XFD30"/>
@@ -1305,13 +1439,8 @@
     <mergeCell ref="A34:XFD34"/>
     <mergeCell ref="A33:XFD33"/>
     <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="A25:XFD25"/>
     <mergeCell ref="A23:XFD23"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:XFD15"/>
-    <mergeCell ref="A16:XFD16"/>
-    <mergeCell ref="A1:XFD2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1321,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1334,81 +1463,81 @@
     <col min="6" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="26" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="1:3" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="32" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="19"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="6"/>
       <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="19"/>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="31"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="19"/>
       <c r="C14" s="17"/>
     </row>
@@ -1427,42 +1556,42 @@
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="31"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
     </row>
-    <row r="19" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:3" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+    <row r="19" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:3" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:3" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:3" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:3" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:3" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:3" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:3" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:3" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:3" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:3" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:3" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:3" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:3" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:3" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:3" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:3" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:3" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:3" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:3" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:3" s="29" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:3" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="21"/>
       <c r="C40" s="23"/>
@@ -1476,18 +1605,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A19:XFD19"/>
-    <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="A22:XFD22"/>
-    <mergeCell ref="A23:XFD23"/>
-    <mergeCell ref="A26:XFD26"/>
-    <mergeCell ref="A27:XFD27"/>
-    <mergeCell ref="A28:XFD28"/>
-    <mergeCell ref="A29:XFD29"/>
-    <mergeCell ref="A30:XFD30"/>
     <mergeCell ref="A38:XFD38"/>
     <mergeCell ref="A39:XFD39"/>
     <mergeCell ref="A37:XFD37"/>
@@ -1504,6 +1621,18 @@
     <mergeCell ref="A35:XFD35"/>
     <mergeCell ref="A36:XFD36"/>
     <mergeCell ref="A25:XFD25"/>
+    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="A27:XFD27"/>
+    <mergeCell ref="A28:XFD28"/>
+    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="A30:XFD30"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A19:XFD19"/>
+    <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="A22:XFD22"/>
+    <mergeCell ref="A23:XFD23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1511,384 +1640,328 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:3" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:3" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="26" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-    </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="31"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="17"/>
-    </row>
-    <row r="15" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
-    </row>
-    <row r="18" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="31"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-    </row>
-    <row r="19" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:3" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:3" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="21"/>
-      <c r="C40" s="23"/>
-    </row>
-    <row r="41" spans="1:3" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="21"/>
-      <c r="C41" s="23"/>
-    </row>
-    <row r="42" spans="1:3" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C42" s="23"/>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A19:XFD19"/>
-    <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="A22:XFD22"/>
-    <mergeCell ref="A23:XFD23"/>
-    <mergeCell ref="A26:XFD26"/>
-    <mergeCell ref="A27:XFD27"/>
-    <mergeCell ref="A28:XFD28"/>
-    <mergeCell ref="A29:XFD29"/>
-    <mergeCell ref="A30:XFD30"/>
-    <mergeCell ref="A38:XFD38"/>
-    <mergeCell ref="A39:XFD39"/>
-    <mergeCell ref="A37:XFD37"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A31:XFD31"/>
-    <mergeCell ref="A32:XFD32"/>
-    <mergeCell ref="A33:XFD33"/>
-    <mergeCell ref="A34:XFD34"/>
-    <mergeCell ref="A35:XFD35"/>
-    <mergeCell ref="A36:XFD36"/>
-    <mergeCell ref="A25:XFD25"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="130.6640625" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="26" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-    </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="31"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="17"/>
-    </row>
-    <row r="15" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
-    </row>
-    <row r="18" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="31"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-    </row>
-    <row r="19" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:3" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:3" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:3" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="21"/>
-      <c r="C40" s="23"/>
-    </row>
-    <row r="41" spans="1:3" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="21"/>
-      <c r="C41" s="23"/>
-    </row>
-    <row r="42" spans="1:3" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C42" s="23"/>
+    <row r="1" spans="1:3" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="23"/>
+    </row>
+    <row r="2" spans="1:3" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="23"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="44"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="44"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="44"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="44"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="44"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A19:XFD19"/>
-    <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="A22:XFD22"/>
-    <mergeCell ref="A23:XFD23"/>
-    <mergeCell ref="A26:XFD26"/>
-    <mergeCell ref="A27:XFD27"/>
-    <mergeCell ref="A28:XFD28"/>
-    <mergeCell ref="A29:XFD29"/>
-    <mergeCell ref="A30:XFD30"/>
-    <mergeCell ref="A38:XFD38"/>
-    <mergeCell ref="A39:XFD39"/>
-    <mergeCell ref="A37:XFD37"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A31:XFD31"/>
-    <mergeCell ref="A32:XFD32"/>
-    <mergeCell ref="A33:XFD33"/>
-    <mergeCell ref="A34:XFD34"/>
-    <mergeCell ref="A35:XFD35"/>
-    <mergeCell ref="A36:XFD36"/>
-    <mergeCell ref="A25:XFD25"/>
+  <mergeCells count="1">
+    <mergeCell ref="B10:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>